--- a/dist/document/dest/2020/10/khai/205_ttd.xlsx
+++ b/dist/document/dest/2020/10/khai/205_ttd.xlsx
@@ -11,18 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Công ty TNHH DP Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: Khải</t>
-  </si>
-  <si>
-    <t>PHÍ THÁNG (01/09 -&gt; 30/09/2020)</t>
-  </si>
-  <si>
-    <t>Bác Sĩ: Trần Thị Diễm</t>
+    <t>TDV: Khải</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>Kính gửi khách hàng: 205</t>
   </si>
   <si>
     <t>STT</t>
@@ -46,40 +46,22 @@
     <t>CK</t>
   </si>
   <si>
-    <t>Sopezid</t>
-  </si>
-  <si>
-    <t>BS One</t>
-  </si>
-  <si>
-    <t>Cardorite</t>
-  </si>
-  <si>
-    <t>Picencal</t>
-  </si>
-  <si>
-    <t>Cimrinat</t>
-  </si>
-  <si>
-    <t>Cefass</t>
-  </si>
-  <si>
-    <t>Noraquick</t>
-  </si>
-  <si>
-    <t>Lucass 200</t>
-  </si>
-  <si>
-    <t>Zantagel</t>
-  </si>
-  <si>
-    <t>Celevox</t>
-  </si>
-  <si>
-    <t>Aluantine</t>
-  </si>
-  <si>
-    <t>Esotrax</t>
+    <t>Sope***</t>
+  </si>
+  <si>
+    <t>Pice****</t>
+  </si>
+  <si>
+    <t>Cefa**</t>
+  </si>
+  <si>
+    <t>Luca******</t>
+  </si>
+  <si>
+    <t>Zant****</t>
+  </si>
+  <si>
+    <t>Cele***</t>
   </si>
   <si>
     <t>Tổng cộng</t>
@@ -528,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -614,19 +596,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="D6" s="10">
         <v>15000</v>
       </c>
       <c r="E6" s="10">
-        <v>0</v>
+        <v>6435000</v>
       </c>
       <c r="F6" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G6" s="10">
-        <v>0</v>
+        <v>2895750</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -637,19 +619,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="D7" s="10">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="E7" s="10">
-        <v>0</v>
+        <v>2262000</v>
       </c>
       <c r="F7" s="10">
         <v>35</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
+        <v>791700</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -660,19 +642,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D8" s="10">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="E8" s="10">
-        <v>0</v>
+        <v>1710000</v>
       </c>
       <c r="F8" s="10">
         <v>45</v>
       </c>
       <c r="G8" s="10">
-        <v>0</v>
+        <v>769500</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -683,19 +665,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="10">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D9" s="10">
-        <v>2900</v>
+        <v>14700</v>
       </c>
       <c r="E9" s="10">
-        <v>0</v>
+        <v>2646000</v>
       </c>
       <c r="F9" s="10">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G9" s="10">
-        <v>0</v>
+        <v>1164240</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -706,19 +688,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D10" s="10">
-        <v>24000</v>
+        <v>6926</v>
       </c>
       <c r="E10" s="10">
-        <v>0</v>
+        <v>138520</v>
       </c>
       <c r="F10" s="10">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G10" s="10">
-        <v>0</v>
+        <v>41556</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -729,192 +711,54 @@
         <v>16</v>
       </c>
       <c r="C11" s="10">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D11" s="10">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E11" s="10">
-        <v>0</v>
+        <v>1152000</v>
       </c>
       <c r="F11" s="10">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <v>368640</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10">
-        <v>6000</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>44</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>8</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="11">
+        <v>1695</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11">
+        <v>14343520</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
+        <v>6031386</v>
+      </c>
+    </row>
+    <row r="13" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10">
-        <v>14700</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>44</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>9</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>6926</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>30</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <v>12000</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>32</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>11</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10">
-        <v>8000</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>32</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>12</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
-        <v>10800</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>40</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="11">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
